--- a/data/pca/factorExposure/factorExposure_2019-02-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1183071890695107</v>
+        <v>-0.07252714010275516</v>
       </c>
       <c r="C2">
-        <v>0.01562753129784496</v>
+        <v>0.03066592212894147</v>
       </c>
       <c r="D2">
-        <v>0.05708265631527749</v>
+        <v>0.02259618802363088</v>
       </c>
       <c r="E2">
-        <v>-0.126824764588919</v>
+        <v>0.04354229249721542</v>
       </c>
       <c r="F2">
-        <v>-0.06758084196573594</v>
+        <v>-0.1402552731284636</v>
       </c>
       <c r="G2">
-        <v>0.08598096610920769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1063467987567464</v>
+      </c>
+      <c r="H2">
+        <v>0.05653308905873521</v>
+      </c>
+      <c r="I2">
+        <v>-0.04051376139867873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2108368963201226</v>
+        <v>-0.1639444006235233</v>
       </c>
       <c r="C3">
-        <v>0.1600217349580536</v>
+        <v>0.1074408636647233</v>
       </c>
       <c r="D3">
-        <v>-0.02286797190137088</v>
+        <v>-0.002271515457215733</v>
       </c>
       <c r="E3">
-        <v>-0.3310734934085033</v>
+        <v>-0.0001556014825673122</v>
       </c>
       <c r="F3">
-        <v>0.0472534672640385</v>
+        <v>-0.372130024015489</v>
       </c>
       <c r="G3">
-        <v>0.07813082957273464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.09161337032519172</v>
+      </c>
+      <c r="H3">
+        <v>0.2751641785859781</v>
+      </c>
+      <c r="I3">
+        <v>-0.226597868227198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09506012787170816</v>
+        <v>-0.07260485457472168</v>
       </c>
       <c r="C4">
-        <v>0.04939296129729292</v>
+        <v>0.04824474506483657</v>
       </c>
       <c r="D4">
-        <v>0.02958352079318665</v>
+        <v>-0.01312612391805191</v>
       </c>
       <c r="E4">
-        <v>-0.06991244505132679</v>
+        <v>0.04215706602749315</v>
       </c>
       <c r="F4">
-        <v>-0.005341422358100635</v>
+        <v>-0.08039446367373342</v>
       </c>
       <c r="G4">
-        <v>0.03991937104985711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04475787076995593</v>
+      </c>
+      <c r="H4">
+        <v>0.02408532147590058</v>
+      </c>
+      <c r="I4">
+        <v>-0.03387068845636988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01816843125397678</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01368001839324871</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.00548296262180578</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005332359050743123</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.003662122003498983</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02074154105493229</v>
+      </c>
+      <c r="H6">
+        <v>0.0009203067597699706</v>
+      </c>
+      <c r="I6">
+        <v>0.01401648846111758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03969280880971311</v>
+        <v>-0.03413512084685625</v>
       </c>
       <c r="C7">
-        <v>0.01388942173308196</v>
+        <v>0.01629865547916145</v>
       </c>
       <c r="D7">
-        <v>0.03639991856917087</v>
+        <v>-0.03559910717338026</v>
       </c>
       <c r="E7">
-        <v>-0.07444023693716101</v>
+        <v>0.02945743927855603</v>
       </c>
       <c r="F7">
-        <v>0.04646228070944208</v>
+        <v>-0.05390341549593079</v>
       </c>
       <c r="G7">
-        <v>-0.03603418151659438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.005917256793374868</v>
+      </c>
+      <c r="H7">
+        <v>0.04649352673935032</v>
+      </c>
+      <c r="I7">
+        <v>-0.005062277122203555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04413608400920245</v>
+        <v>-0.02895699141582219</v>
       </c>
       <c r="C8">
-        <v>0.05656482194693433</v>
+        <v>0.0502414256315243</v>
       </c>
       <c r="D8">
-        <v>0.00591527699270736</v>
+        <v>-0.01185455230644555</v>
       </c>
       <c r="E8">
-        <v>-0.07003207458633948</v>
+        <v>0.02190230734125343</v>
       </c>
       <c r="F8">
-        <v>0.008353118185655893</v>
+        <v>-0.0708120988384183</v>
       </c>
       <c r="G8">
-        <v>0.01361489745485604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02039749777634926</v>
+      </c>
+      <c r="H8">
+        <v>0.04282317243562345</v>
+      </c>
+      <c r="I8">
+        <v>-0.04087607636036607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08224286568893104</v>
+        <v>-0.06079386298928161</v>
       </c>
       <c r="C9">
-        <v>0.04376288722075953</v>
+        <v>0.0426315341257637</v>
       </c>
       <c r="D9">
-        <v>0.03690776950687335</v>
+        <v>-0.0170507204319666</v>
       </c>
       <c r="E9">
-        <v>-0.05510518154940926</v>
+        <v>0.03648908551700016</v>
       </c>
       <c r="F9">
-        <v>0.009281064384506784</v>
+        <v>-0.07987035594189686</v>
       </c>
       <c r="G9">
-        <v>0.04819430868235133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0422744335817102</v>
+      </c>
+      <c r="H9">
+        <v>0.02346166299934398</v>
+      </c>
+      <c r="I9">
+        <v>-0.01641068075425052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01942932468938423</v>
+        <v>-0.0350028157988892</v>
       </c>
       <c r="C10">
-        <v>-0.1589967547361256</v>
+        <v>-0.1527461089389965</v>
       </c>
       <c r="D10">
-        <v>-0.03407215006866115</v>
+        <v>0.005974182618517862</v>
       </c>
       <c r="E10">
-        <v>-0.07335610166300334</v>
+        <v>-0.04138640219643674</v>
       </c>
       <c r="F10">
-        <v>-0.01499809667572817</v>
+        <v>-0.06866965502769781</v>
       </c>
       <c r="G10">
-        <v>-0.000839779980226635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02421457959445155</v>
+      </c>
+      <c r="H10">
+        <v>0.002990581266281682</v>
+      </c>
+      <c r="I10">
+        <v>-0.1076183032943681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05841002269597896</v>
+        <v>-0.04854865036239693</v>
       </c>
       <c r="C11">
-        <v>0.01683748825953525</v>
+        <v>0.03162814329480294</v>
       </c>
       <c r="D11">
-        <v>-0.004593446445494994</v>
+        <v>0.006712536155746847</v>
       </c>
       <c r="E11">
-        <v>-0.04368098240056423</v>
+        <v>0.01021358072528487</v>
       </c>
       <c r="F11">
-        <v>-0.008793136495271723</v>
+        <v>-0.0396042362899434</v>
       </c>
       <c r="G11">
-        <v>-0.007134785096745953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.007123382644122268</v>
+      </c>
+      <c r="H11">
+        <v>0.0001324734497031441</v>
+      </c>
+      <c r="I11">
+        <v>0.008417782119964985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04421849623243246</v>
+        <v>-0.04530931335147844</v>
       </c>
       <c r="C12">
-        <v>0.01965686111944854</v>
+        <v>0.02815423125002401</v>
       </c>
       <c r="D12">
-        <v>-0.00216085820314621</v>
+        <v>-0.004362705266236422</v>
       </c>
       <c r="E12">
-        <v>-0.02781818579470144</v>
+        <v>0.01156472261384128</v>
       </c>
       <c r="F12">
-        <v>0.008279222543885013</v>
+        <v>-0.0140596805008655</v>
       </c>
       <c r="G12">
-        <v>0.002024174834851497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0004050889625661442</v>
+      </c>
+      <c r="H12">
+        <v>0.002880906139300036</v>
+      </c>
+      <c r="I12">
+        <v>0.00645569921658129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06235789895298347</v>
+        <v>-0.04124398371224376</v>
       </c>
       <c r="C13">
-        <v>0.03058572647961386</v>
+        <v>0.02679129578739317</v>
       </c>
       <c r="D13">
-        <v>-0.005071813379441726</v>
+        <v>0.01556891895168158</v>
       </c>
       <c r="E13">
-        <v>-0.1101925184204127</v>
+        <v>0.009845676140116943</v>
       </c>
       <c r="F13">
-        <v>-0.007611609321021157</v>
+        <v>-0.1046990255941025</v>
       </c>
       <c r="G13">
-        <v>0.01180198461078449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02356293883897406</v>
+      </c>
+      <c r="H13">
+        <v>0.04405736703474252</v>
+      </c>
+      <c r="I13">
+        <v>-0.01604860241619246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0344337718383441</v>
+        <v>-0.02878950698069865</v>
       </c>
       <c r="C14">
-        <v>0.02136189642693988</v>
+        <v>0.01872406227024572</v>
       </c>
       <c r="D14">
-        <v>0.0277036880728704</v>
+        <v>-0.004515231921467513</v>
       </c>
       <c r="E14">
-        <v>-0.03151941913517987</v>
+        <v>0.0278522714043166</v>
       </c>
       <c r="F14">
-        <v>-0.01917059119269214</v>
+        <v>-0.04027178016544567</v>
       </c>
       <c r="G14">
-        <v>-0.01634118102745872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02705944966337887</v>
+      </c>
+      <c r="H14">
+        <v>0.05184142985910352</v>
+      </c>
+      <c r="I14">
+        <v>-0.008727442634264797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04692992289551978</v>
+        <v>-0.04309465753587979</v>
       </c>
       <c r="C16">
-        <v>0.02918030855757151</v>
+        <v>0.03797560356039967</v>
       </c>
       <c r="D16">
-        <v>-0.00790560411896807</v>
+        <v>0.001011755205296217</v>
       </c>
       <c r="E16">
-        <v>-0.03354768522408676</v>
+        <v>0.007545758819845794</v>
       </c>
       <c r="F16">
-        <v>0.006153709677772034</v>
+        <v>-0.03428527696277157</v>
       </c>
       <c r="G16">
-        <v>-0.009183266484378977</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005628186786521564</v>
+      </c>
+      <c r="H16">
+        <v>0.007475364046847715</v>
+      </c>
+      <c r="I16">
+        <v>0.007125404594310825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05361420294401135</v>
+        <v>-0.04751614100862148</v>
       </c>
       <c r="C19">
-        <v>0.04807017179614755</v>
+        <v>0.04502990597147459</v>
       </c>
       <c r="D19">
-        <v>0.001401642580535281</v>
+        <v>0.002044817831069036</v>
       </c>
       <c r="E19">
-        <v>-0.07745754625716035</v>
+        <v>0.02339225594060513</v>
       </c>
       <c r="F19">
-        <v>0.00709859801900426</v>
+        <v>-0.08078510401055329</v>
       </c>
       <c r="G19">
-        <v>-0.03133588987668925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.00754982637361379</v>
+      </c>
+      <c r="H19">
+        <v>0.08131054704970297</v>
+      </c>
+      <c r="I19">
+        <v>-0.03752164487433678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03454681767040722</v>
+        <v>-0.0177009945530981</v>
       </c>
       <c r="C20">
-        <v>0.0449610645883888</v>
+        <v>0.02983566894794633</v>
       </c>
       <c r="D20">
-        <v>0.0128856628528031</v>
+        <v>-0.006309904763395054</v>
       </c>
       <c r="E20">
-        <v>-0.06478463252625642</v>
+        <v>0.0209586824087017</v>
       </c>
       <c r="F20">
-        <v>0.01236087567200637</v>
+        <v>-0.06517060040574656</v>
       </c>
       <c r="G20">
-        <v>-0.013646786884893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01189846509208471</v>
+      </c>
+      <c r="H20">
+        <v>0.07036384808036483</v>
+      </c>
+      <c r="I20">
+        <v>-0.0306815330166771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03452944659018412</v>
+        <v>-0.0276893221748355</v>
       </c>
       <c r="C21">
-        <v>0.03324136279466262</v>
+        <v>0.03031830023485801</v>
       </c>
       <c r="D21">
-        <v>0.00317070758242013</v>
+        <v>-0.01277030943756072</v>
       </c>
       <c r="E21">
-        <v>-0.108026078530282</v>
+        <v>0.00922713578047216</v>
       </c>
       <c r="F21">
-        <v>-0.03260215271697527</v>
+        <v>-0.07900710654497951</v>
       </c>
       <c r="G21">
-        <v>0.03407319950819373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03673821507823734</v>
+      </c>
+      <c r="H21">
+        <v>0.02773637990598358</v>
+      </c>
+      <c r="I21">
+        <v>0.01228784252806012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05069230954119068</v>
+        <v>-0.04157883376948888</v>
       </c>
       <c r="C24">
-        <v>0.02486911693571426</v>
+        <v>0.03098227208754342</v>
       </c>
       <c r="D24">
-        <v>-0.0004623299303040451</v>
+        <v>0.0005771700072130889</v>
       </c>
       <c r="E24">
-        <v>-0.04359517861367979</v>
+        <v>0.01162294271674597</v>
       </c>
       <c r="F24">
-        <v>0.009563234602526985</v>
+        <v>-0.03699077625842449</v>
       </c>
       <c r="G24">
-        <v>8.97974283632147e-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.00112510296343595</v>
+      </c>
+      <c r="H24">
+        <v>0.00281464363545586</v>
+      </c>
+      <c r="I24">
+        <v>0.007344513947744458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05205920523213396</v>
+        <v>-0.04597358933739938</v>
       </c>
       <c r="C25">
-        <v>0.0140100783937855</v>
+        <v>0.02692653199929705</v>
       </c>
       <c r="D25">
-        <v>0.0003600560706242552</v>
+        <v>0.002152136185571687</v>
       </c>
       <c r="E25">
-        <v>-0.04329123591758695</v>
+        <v>0.01093027682660511</v>
       </c>
       <c r="F25">
-        <v>-0.003480843891430027</v>
+        <v>-0.04405209317218886</v>
       </c>
       <c r="G25">
-        <v>-0.0006232834524342978</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.003347897464375189</v>
+      </c>
+      <c r="H25">
+        <v>-0.001405214966781891</v>
+      </c>
+      <c r="I25">
+        <v>0.01096901422766048</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02068159505092295</v>
+        <v>-0.01716710972958792</v>
       </c>
       <c r="C26">
-        <v>0.03094007477176711</v>
+        <v>0.02552965049777791</v>
       </c>
       <c r="D26">
-        <v>0.005623419805194987</v>
+        <v>0.004803204228507841</v>
       </c>
       <c r="E26">
-        <v>-0.03638260587484494</v>
+        <v>0.003007395191494071</v>
       </c>
       <c r="F26">
-        <v>-0.02835535436527018</v>
+        <v>-0.04666871805083758</v>
       </c>
       <c r="G26">
-        <v>-0.01095973780733667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0225034706146418</v>
+      </c>
+      <c r="H26">
+        <v>0.03359169250623286</v>
+      </c>
+      <c r="I26">
+        <v>0.005852585599021701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1172948267762605</v>
+        <v>-0.07357145484419034</v>
       </c>
       <c r="C27">
-        <v>0.03749733929757099</v>
+        <v>0.03149841085800899</v>
       </c>
       <c r="D27">
-        <v>0.02196013229717575</v>
+        <v>-0.004376682252069239</v>
       </c>
       <c r="E27">
-        <v>-0.08999924186183933</v>
+        <v>0.03555253122284372</v>
       </c>
       <c r="F27">
-        <v>0.006938215243022245</v>
+        <v>-0.06691316321837196</v>
       </c>
       <c r="G27">
-        <v>0.01673803670025212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02036322703810633</v>
+      </c>
+      <c r="H27">
+        <v>0.01153185046602482</v>
+      </c>
+      <c r="I27">
+        <v>-0.02639253159082914</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01761468130646419</v>
+        <v>-0.05251176870228069</v>
       </c>
       <c r="C28">
-        <v>-0.239571614475488</v>
+        <v>-0.2335654030288199</v>
       </c>
       <c r="D28">
-        <v>-0.03851990333739801</v>
+        <v>-0.001082026635453435</v>
       </c>
       <c r="E28">
-        <v>-0.05260697346505707</v>
+        <v>-0.06261572284030342</v>
       </c>
       <c r="F28">
-        <v>-0.02807980221446875</v>
+        <v>-0.05956795232948262</v>
       </c>
       <c r="G28">
-        <v>0.01676738167573424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02568688514898205</v>
+      </c>
+      <c r="H28">
+        <v>-0.002225004759287401</v>
+      </c>
+      <c r="I28">
+        <v>-0.1604754830371246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02386258657564442</v>
+        <v>-0.02406371152588627</v>
       </c>
       <c r="C29">
-        <v>0.02536059519299271</v>
+        <v>0.01829589954027924</v>
       </c>
       <c r="D29">
-        <v>0.02897089018010286</v>
+        <v>-0.008590006672689228</v>
       </c>
       <c r="E29">
-        <v>-0.03085921958733722</v>
+        <v>0.02776714381020956</v>
       </c>
       <c r="F29">
-        <v>-0.01479126117507698</v>
+        <v>-0.03395989482337033</v>
       </c>
       <c r="G29">
-        <v>-0.0056672458583642</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0289803738037716</v>
+      </c>
+      <c r="H29">
+        <v>0.05154969631386486</v>
+      </c>
+      <c r="I29">
+        <v>-0.002489396776658836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.113146987150942</v>
+        <v>-0.08902655712934839</v>
       </c>
       <c r="C30">
-        <v>0.0258815035025063</v>
+        <v>0.05046357735802504</v>
       </c>
       <c r="D30">
-        <v>0.03257487387593307</v>
+        <v>0.03815095121825237</v>
       </c>
       <c r="E30">
-        <v>-0.1115911743398409</v>
+        <v>0.03534783999481533</v>
       </c>
       <c r="F30">
-        <v>0.003863242176638243</v>
+        <v>-0.1027026067076622</v>
       </c>
       <c r="G30">
-        <v>-0.02209162546584033</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01595761087760286</v>
+      </c>
+      <c r="H30">
+        <v>0.01917560840189416</v>
+      </c>
+      <c r="I30">
+        <v>0.01061693244087195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06775195349320708</v>
+        <v>-0.06256939226187185</v>
       </c>
       <c r="C31">
-        <v>0.01486692853092611</v>
+        <v>0.02205869564247828</v>
       </c>
       <c r="D31">
-        <v>0.01493803455109471</v>
+        <v>0.01177752644816269</v>
       </c>
       <c r="E31">
-        <v>0.01973106502218156</v>
+        <v>0.02317775320840491</v>
       </c>
       <c r="F31">
-        <v>-0.04139099419618303</v>
+        <v>-0.001722823070034034</v>
       </c>
       <c r="G31">
-        <v>-0.03970577912030891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0411280065676071</v>
+      </c>
+      <c r="H31">
+        <v>0.03225623971072727</v>
+      </c>
+      <c r="I31">
+        <v>-0.01177735286536963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.06235947680746288</v>
+        <v>-0.04228319725116307</v>
       </c>
       <c r="C32">
-        <v>0.04563914710412264</v>
+        <v>0.05279364698668274</v>
       </c>
       <c r="D32">
-        <v>0.01774540965211177</v>
+        <v>-0.01427551644146302</v>
       </c>
       <c r="E32">
-        <v>-0.1044761349582135</v>
+        <v>0.03423906566516453</v>
       </c>
       <c r="F32">
-        <v>0.006627563678269421</v>
+        <v>-0.08561856123849676</v>
       </c>
       <c r="G32">
-        <v>-0.01902578442898972</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01312596247414656</v>
+      </c>
+      <c r="H32">
+        <v>0.03916159032677989</v>
+      </c>
+      <c r="I32">
+        <v>-0.02591485334392045</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06803272294062311</v>
+        <v>-0.05614867632121824</v>
       </c>
       <c r="C33">
-        <v>0.04891713745416778</v>
+        <v>0.05273302628186755</v>
       </c>
       <c r="D33">
-        <v>0.0134155952700259</v>
+        <v>0.01947783279086112</v>
       </c>
       <c r="E33">
-        <v>-0.07495310409732055</v>
+        <v>0.01570864933003039</v>
       </c>
       <c r="F33">
-        <v>-0.03887647976212106</v>
+        <v>-0.07542165537834131</v>
       </c>
       <c r="G33">
-        <v>0.01163179201078357</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03413383594826462</v>
+      </c>
+      <c r="H33">
+        <v>0.03825006157235915</v>
+      </c>
+      <c r="I33">
+        <v>0.005690073416935762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0474837238814438</v>
+        <v>-0.0437707070754488</v>
       </c>
       <c r="C34">
-        <v>0.02365162128721408</v>
+        <v>0.03492512026471545</v>
       </c>
       <c r="D34">
-        <v>0.00485932201295465</v>
+        <v>-0.00366585232606575</v>
       </c>
       <c r="E34">
-        <v>-0.02781988603983467</v>
+        <v>0.01868050724595619</v>
       </c>
       <c r="F34">
-        <v>0.006567839736240742</v>
+        <v>-0.03027144228292471</v>
       </c>
       <c r="G34">
-        <v>-0.008160450371858493</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.001044958307720428</v>
+      </c>
+      <c r="H34">
+        <v>0.01004966734924249</v>
+      </c>
+      <c r="I34">
+        <v>0.005739178179708108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01422449623739489</v>
+        <v>-0.01603466116709714</v>
       </c>
       <c r="C36">
-        <v>0.00173559528054085</v>
+        <v>0.002943572368810447</v>
       </c>
       <c r="D36">
-        <v>0.006945911023794714</v>
+        <v>-0.004309285586474145</v>
       </c>
       <c r="E36">
-        <v>-0.02232618381808416</v>
+        <v>0.01087750002408901</v>
       </c>
       <c r="F36">
-        <v>-0.01451953184068617</v>
+        <v>-0.02661709290412146</v>
       </c>
       <c r="G36">
-        <v>-0.009622995648162899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02416558121028905</v>
+      </c>
+      <c r="H36">
+        <v>0.03015979798895328</v>
+      </c>
+      <c r="I36">
+        <v>0.005654020633530881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.05019295387615327</v>
+        <v>-0.03475837388025221</v>
       </c>
       <c r="C38">
-        <v>0.0191428962486021</v>
+        <v>0.01547984184106352</v>
       </c>
       <c r="D38">
-        <v>0.02810314273241682</v>
+        <v>-0.00317912256798891</v>
       </c>
       <c r="E38">
-        <v>-0.02304397091820242</v>
+        <v>0.01427044165989096</v>
       </c>
       <c r="F38">
-        <v>0.0177065892091709</v>
+        <v>-0.04655245354169253</v>
       </c>
       <c r="G38">
-        <v>0.0216471481111551</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02652052644291574</v>
+      </c>
+      <c r="H38">
+        <v>0.01538276357713493</v>
+      </c>
+      <c r="I38">
+        <v>0.01258718594233519</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07401111877030826</v>
+        <v>-0.05621080867953376</v>
       </c>
       <c r="C39">
-        <v>0.02209974558783851</v>
+        <v>0.04510167712227285</v>
       </c>
       <c r="D39">
-        <v>0.003777441243291038</v>
+        <v>0.005609924545597733</v>
       </c>
       <c r="E39">
-        <v>-0.04086827702785729</v>
+        <v>0.01902028552000947</v>
       </c>
       <c r="F39">
-        <v>-0.01164936188408132</v>
+        <v>-0.05386615516865813</v>
       </c>
       <c r="G39">
-        <v>0.008043760343212455</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01923662173594654</v>
+      </c>
+      <c r="H39">
+        <v>0.0003108501681502591</v>
+      </c>
+      <c r="I39">
+        <v>0.02812299107481998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07587357810293463</v>
+        <v>-0.05560322722994594</v>
       </c>
       <c r="C40">
-        <v>0.0474419058719948</v>
+        <v>0.04209658579194939</v>
       </c>
       <c r="D40">
-        <v>0.01183276972920059</v>
+        <v>0.02139139703732508</v>
       </c>
       <c r="E40">
-        <v>-0.1058169010549835</v>
+        <v>0.02567284392272845</v>
       </c>
       <c r="F40">
-        <v>-0.005193283079860338</v>
+        <v>-0.0933713382615932</v>
       </c>
       <c r="G40">
-        <v>0.03415221415126311</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02503486358993774</v>
+      </c>
+      <c r="H40">
+        <v>0.04940769393632374</v>
+      </c>
+      <c r="I40">
+        <v>-0.02841659367005381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.001993101323395217</v>
+        <v>-0.003907346181231464</v>
       </c>
       <c r="C41">
-        <v>0.02218493149028476</v>
+        <v>0.01241250847968721</v>
       </c>
       <c r="D41">
-        <v>0.02818641246288089</v>
+        <v>0.0002923937640220224</v>
       </c>
       <c r="E41">
-        <v>-0.01161214499574712</v>
+        <v>0.01083540693063097</v>
       </c>
       <c r="F41">
-        <v>-0.03087106710266851</v>
+        <v>-0.01337635024508079</v>
       </c>
       <c r="G41">
-        <v>0.0003570594692305775</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03508174625058066</v>
+      </c>
+      <c r="H41">
+        <v>0.03152366152098048</v>
+      </c>
+      <c r="I41">
+        <v>-0.0239139435704151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1554848306697601</v>
+        <v>-0.2157834972350385</v>
       </c>
       <c r="C42">
-        <v>0.2398532290776599</v>
+        <v>0.2897862593640952</v>
       </c>
       <c r="D42">
-        <v>-0.9196946111990445</v>
+        <v>0.05044674352842011</v>
       </c>
       <c r="E42">
-        <v>0.09314787633688727</v>
+        <v>-0.9029836274471231</v>
       </c>
       <c r="F42">
-        <v>-0.06398472674034446</v>
+        <v>0.1520979877653889</v>
       </c>
       <c r="G42">
-        <v>-0.1053413414194461</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.003846740070650622</v>
+      </c>
+      <c r="H42">
+        <v>-0.002901518098840357</v>
+      </c>
+      <c r="I42">
+        <v>-0.05190073357149563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005444116729027054</v>
+        <v>-0.006850004833613494</v>
       </c>
       <c r="C43">
-        <v>0.02334016994634397</v>
+        <v>0.01457120043503393</v>
       </c>
       <c r="D43">
-        <v>0.0170479572247377</v>
+        <v>0.002748153760148516</v>
       </c>
       <c r="E43">
-        <v>-0.03377516297040576</v>
+        <v>0.01098980090905419</v>
       </c>
       <c r="F43">
-        <v>-0.01486564647681721</v>
+        <v>-0.02800288743432463</v>
       </c>
       <c r="G43">
-        <v>-0.01485819227926245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.0199392355998997</v>
+      </c>
+      <c r="H43">
+        <v>0.03103164193295628</v>
+      </c>
+      <c r="I43">
+        <v>-0.01478485731532039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.03977170943888254</v>
+        <v>-0.02812233048715725</v>
       </c>
       <c r="C44">
-        <v>0.05368626468901758</v>
+        <v>0.04314208417499246</v>
       </c>
       <c r="D44">
-        <v>0.01914435897704268</v>
+        <v>-0.00116176361716874</v>
       </c>
       <c r="E44">
-        <v>-0.1258037124781524</v>
+        <v>0.0131933491952802</v>
       </c>
       <c r="F44">
-        <v>-0.07768903103136041</v>
+        <v>-0.1209126458228705</v>
       </c>
       <c r="G44">
-        <v>0.02574581556105194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06171971628125675</v>
+      </c>
+      <c r="H44">
+        <v>0.1007287951821362</v>
+      </c>
+      <c r="I44">
+        <v>-0.02535033514905328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02864526506032113</v>
+        <v>-0.02582017976009905</v>
       </c>
       <c r="C46">
-        <v>0.027954749809696</v>
+        <v>0.0345094994608401</v>
       </c>
       <c r="D46">
-        <v>0.03283222059683422</v>
+        <v>0.003332066946298719</v>
       </c>
       <c r="E46">
-        <v>-0.03248436088113799</v>
+        <v>0.03159283990833144</v>
       </c>
       <c r="F46">
-        <v>-0.03081935813233283</v>
+        <v>-0.04680425962399132</v>
       </c>
       <c r="G46">
-        <v>-0.005143218473864522</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02465091972556254</v>
+      </c>
+      <c r="H46">
+        <v>0.05347736971695208</v>
+      </c>
+      <c r="I46">
+        <v>-0.0009628477413431074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08936295090525606</v>
+        <v>-0.09012133294144782</v>
       </c>
       <c r="C47">
-        <v>0.0136039681032288</v>
+        <v>0.0180466419720167</v>
       </c>
       <c r="D47">
-        <v>0.01717182488714752</v>
+        <v>0.006193769678614616</v>
       </c>
       <c r="E47">
-        <v>0.02109298530250733</v>
+        <v>0.02556388324028649</v>
       </c>
       <c r="F47">
-        <v>-0.02067401495867301</v>
+        <v>0.01152693608250819</v>
       </c>
       <c r="G47">
-        <v>-0.01462576040042894</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04145093661405012</v>
+      </c>
+      <c r="H47">
+        <v>0.05402073947509083</v>
+      </c>
+      <c r="I47">
+        <v>-0.02199929500734481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01906150481787525</v>
+        <v>-0.0192948612385112</v>
       </c>
       <c r="C48">
-        <v>0.02529951036414774</v>
+        <v>0.01975078923060353</v>
       </c>
       <c r="D48">
-        <v>0.01594607090921264</v>
+        <v>-0.0007862721791924171</v>
       </c>
       <c r="E48">
-        <v>-0.02900129880397214</v>
+        <v>0.01519377848684965</v>
       </c>
       <c r="F48">
-        <v>-0.007862677233506107</v>
+        <v>-0.02921080858128941</v>
       </c>
       <c r="G48">
-        <v>-0.001827899353086232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01535672257313058</v>
+      </c>
+      <c r="H48">
+        <v>0.0232752952937515</v>
+      </c>
+      <c r="I48">
+        <v>-0.01193826626731289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09171902474191009</v>
+        <v>-0.08929312172166108</v>
       </c>
       <c r="C50">
-        <v>0.03378130980457438</v>
+        <v>0.03534927723930275</v>
       </c>
       <c r="D50">
-        <v>0.026554519904706</v>
+        <v>-0.0089494468136164</v>
       </c>
       <c r="E50">
-        <v>0.01734024433709511</v>
+        <v>0.02653429230040427</v>
       </c>
       <c r="F50">
-        <v>-0.02871153587751361</v>
+        <v>0.005898875483653995</v>
       </c>
       <c r="G50">
-        <v>-0.04279743493145111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.001213021194082594</v>
+      </c>
+      <c r="H50">
+        <v>0.03700451824758604</v>
+      </c>
+      <c r="I50">
+        <v>0.003497976650958432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05412973192785808</v>
+        <v>-0.03962030896643944</v>
       </c>
       <c r="C51">
-        <v>-0.01804438280800064</v>
+        <v>-0.006575360359917733</v>
       </c>
       <c r="D51">
-        <v>-0.0008291457001499586</v>
+        <v>0.01235652973990351</v>
       </c>
       <c r="E51">
-        <v>-0.08044261966670653</v>
+        <v>0.008898795553459965</v>
       </c>
       <c r="F51">
-        <v>-0.06609393443267941</v>
+        <v>-0.09685846999887479</v>
       </c>
       <c r="G51">
-        <v>-0.01050461474616354</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05414578195043637</v>
+      </c>
+      <c r="H51">
+        <v>0.05439794086079822</v>
+      </c>
+      <c r="I51">
+        <v>-0.01917291581556032</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1410126987696429</v>
+        <v>-0.124486489421569</v>
       </c>
       <c r="C53">
-        <v>0.01622528000351905</v>
+        <v>0.03525660746851513</v>
       </c>
       <c r="D53">
-        <v>0.05338632757644449</v>
+        <v>0.007959938890596541</v>
       </c>
       <c r="E53">
-        <v>0.04941443960809176</v>
+        <v>0.05492154312270154</v>
       </c>
       <c r="F53">
-        <v>-0.02128038404906173</v>
+        <v>0.04167577203831446</v>
       </c>
       <c r="G53">
-        <v>-0.03346981691806244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02223288359154618</v>
+      </c>
+      <c r="H53">
+        <v>-0.001826004110809725</v>
+      </c>
+      <c r="I53">
+        <v>-0.04090682902520127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02576070821155542</v>
+        <v>-0.02581241303279017</v>
       </c>
       <c r="C54">
-        <v>0.005048669116718948</v>
+        <v>0.001977222218725907</v>
       </c>
       <c r="D54">
-        <v>0.02398470620239321</v>
+        <v>-0.004606473241292721</v>
       </c>
       <c r="E54">
-        <v>-0.03585994522959991</v>
+        <v>0.02655239453814294</v>
       </c>
       <c r="F54">
-        <v>-0.04216051557426092</v>
+        <v>-0.0351574249381562</v>
       </c>
       <c r="G54">
-        <v>0.01858708120452303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05039526080451104</v>
+      </c>
+      <c r="H54">
+        <v>0.04338356080607023</v>
+      </c>
+      <c r="I54">
+        <v>-0.02728401883409505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1041759368013122</v>
+        <v>-0.09938044226584784</v>
       </c>
       <c r="C55">
-        <v>0.003575972947270703</v>
+        <v>0.02821154553129077</v>
       </c>
       <c r="D55">
-        <v>0.03647808279026205</v>
+        <v>-0.01023426786632876</v>
       </c>
       <c r="E55">
-        <v>0.01694576756511151</v>
+        <v>0.03605226287733795</v>
       </c>
       <c r="F55">
-        <v>0.03966305463961731</v>
+        <v>0.02973515853589399</v>
       </c>
       <c r="G55">
-        <v>-0.01830910442347053</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.007764234449798214</v>
+      </c>
+      <c r="H55">
+        <v>0.009376857798194546</v>
+      </c>
+      <c r="I55">
+        <v>-0.01866219818308</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1761460167362464</v>
+        <v>-0.1654209022943083</v>
       </c>
       <c r="C56">
-        <v>-0.01341733230502112</v>
+        <v>0.01390456197376944</v>
       </c>
       <c r="D56">
-        <v>0.08857259653145742</v>
+        <v>0.0009631732574194364</v>
       </c>
       <c r="E56">
-        <v>0.1001620169890124</v>
+        <v>0.08369369778338141</v>
       </c>
       <c r="F56">
-        <v>0.05974562491668614</v>
+        <v>0.0871616064085773</v>
       </c>
       <c r="G56">
-        <v>-0.05386800526870932</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02760494621466053</v>
+      </c>
+      <c r="H56">
+        <v>-0.04007524188766303</v>
+      </c>
+      <c r="I56">
+        <v>-0.041840536148367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08737580602320184</v>
+        <v>-0.06552108427638563</v>
       </c>
       <c r="C57">
-        <v>0.03227568513531631</v>
+        <v>0.0347196673752375</v>
       </c>
       <c r="D57">
-        <v>0.03282407776547613</v>
+        <v>0.01819572118919005</v>
       </c>
       <c r="E57">
-        <v>-0.04520052765974636</v>
+        <v>0.009830643208322149</v>
       </c>
       <c r="F57">
-        <v>-0.04999426574325307</v>
+        <v>-0.06618493216866818</v>
       </c>
       <c r="G57">
-        <v>-0.01923367888886818</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02665125706323505</v>
+      </c>
+      <c r="H57">
+        <v>0.03281567312582451</v>
+      </c>
+      <c r="I57">
+        <v>0.004315259311671175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.186724347458237</v>
+        <v>-0.2085169833046327</v>
       </c>
       <c r="C58">
-        <v>0.0326095769117915</v>
+        <v>0.09108741728195204</v>
       </c>
       <c r="D58">
-        <v>-0.019258982314898</v>
+        <v>0.09022942466951785</v>
       </c>
       <c r="E58">
-        <v>-0.1273643706508492</v>
+        <v>-0.001831790782823316</v>
       </c>
       <c r="F58">
-        <v>0.03624736822395667</v>
+        <v>-0.2409848997819864</v>
       </c>
       <c r="G58">
-        <v>-0.07054317928070304</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1776674214609363</v>
+      </c>
+      <c r="H58">
+        <v>0.3853047250752352</v>
+      </c>
+      <c r="I58">
+        <v>0.2392995795167787</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.0237334894703041</v>
+        <v>-0.0520540973604806</v>
       </c>
       <c r="C59">
-        <v>-0.1960232624393256</v>
+        <v>-0.1948382349030492</v>
       </c>
       <c r="D59">
-        <v>-0.007705008331140868</v>
+        <v>0.01616084481267827</v>
       </c>
       <c r="E59">
-        <v>-0.06490752792413483</v>
+        <v>-0.02318998220450035</v>
       </c>
       <c r="F59">
-        <v>-0.01053474238086399</v>
+        <v>-0.07354540233767422</v>
       </c>
       <c r="G59">
-        <v>0.008294966417016734</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.003718222580175359</v>
+      </c>
+      <c r="H59">
+        <v>-0.02625522291282694</v>
+      </c>
+      <c r="I59">
+        <v>-0.05951681253294062</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1911710225257024</v>
+        <v>-0.1883621714725508</v>
       </c>
       <c r="C60">
-        <v>-0.08705543189968205</v>
+        <v>-0.04190972566753275</v>
       </c>
       <c r="D60">
-        <v>0.0121295574635121</v>
+        <v>0.04841458119444182</v>
       </c>
       <c r="E60">
-        <v>-0.1926507665204795</v>
+        <v>0.006622346748801283</v>
       </c>
       <c r="F60">
-        <v>-0.04199664366062296</v>
+        <v>-0.2094026858358892</v>
       </c>
       <c r="G60">
-        <v>0.02118120443392968</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.06852402410886382</v>
+      </c>
+      <c r="H60">
+        <v>-0.2776305546696184</v>
+      </c>
+      <c r="I60">
+        <v>0.09265406293097521</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04435848887102053</v>
+        <v>-0.03658378818770676</v>
       </c>
       <c r="C61">
-        <v>0.01444251478365153</v>
+        <v>0.02904589544644628</v>
       </c>
       <c r="D61">
-        <v>0.001761674670193231</v>
+        <v>-0.0002471220659986</v>
       </c>
       <c r="E61">
-        <v>-0.03674653885513179</v>
+        <v>0.008689545164314746</v>
       </c>
       <c r="F61">
-        <v>-0.002350953304359633</v>
+        <v>-0.03832214871827382</v>
       </c>
       <c r="G61">
-        <v>0.006788692724852808</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.009417461563697183</v>
+      </c>
+      <c r="H61">
+        <v>-0.00462530039485249</v>
+      </c>
+      <c r="I61">
+        <v>0.03868214532094196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04374259088232845</v>
+        <v>-0.0312843318542971</v>
       </c>
       <c r="C63">
-        <v>0.01494225046951889</v>
+        <v>0.02035859952080967</v>
       </c>
       <c r="D63">
-        <v>0.01794892213182169</v>
+        <v>0.002107208925260325</v>
       </c>
       <c r="E63">
-        <v>-0.04008629138924644</v>
+        <v>0.01542572777016124</v>
       </c>
       <c r="F63">
-        <v>-0.01723992314561478</v>
+        <v>-0.02885327933838957</v>
       </c>
       <c r="G63">
-        <v>-0.011231119603689</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0110076143667834</v>
+      </c>
+      <c r="H63">
+        <v>0.05067390133733343</v>
+      </c>
+      <c r="I63">
+        <v>-0.0348614966611447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.07347258264572921</v>
+        <v>-0.05779762221046549</v>
       </c>
       <c r="C64">
-        <v>0.05587136058670723</v>
+        <v>0.04645636690651471</v>
       </c>
       <c r="D64">
-        <v>0.06106676981630385</v>
+        <v>-0.01358237839447585</v>
       </c>
       <c r="E64">
-        <v>-0.05087416156700086</v>
+        <v>0.04633609774110826</v>
       </c>
       <c r="F64">
-        <v>-0.02384328384935369</v>
+        <v>-0.04963370126073872</v>
       </c>
       <c r="G64">
-        <v>0.0632722979999283</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05701290160950892</v>
+      </c>
+      <c r="H64">
+        <v>-0.008837695116381952</v>
+      </c>
+      <c r="I64">
+        <v>-0.03964391105317912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.0199748001361641</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01355880027441364</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.006296340101054276</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.00639545285590638</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-4.220167630981647e-05</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02108449366611915</v>
+      </c>
+      <c r="H65">
+        <v>-0.002972949606763467</v>
+      </c>
+      <c r="I65">
+        <v>0.01517251044707156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.08725830052277897</v>
+        <v>-0.06729728712327526</v>
       </c>
       <c r="C66">
-        <v>0.03826138211041601</v>
+        <v>0.05559138824487448</v>
       </c>
       <c r="D66">
-        <v>0.04253108635360708</v>
+        <v>0.01467621096798536</v>
       </c>
       <c r="E66">
-        <v>-0.07873473671989795</v>
+        <v>0.05071683464612003</v>
       </c>
       <c r="F66">
-        <v>-0.02823036478094963</v>
+        <v>-0.0682193280482432</v>
       </c>
       <c r="G66">
-        <v>0.01403940527933564</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.0141204375105999</v>
+      </c>
+      <c r="H66">
+        <v>-0.0007530384880907751</v>
+      </c>
+      <c r="I66">
+        <v>0.02960011179796839</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05971697571029392</v>
+        <v>-0.04734870379345495</v>
       </c>
       <c r="C67">
-        <v>-0.008831956829734845</v>
+        <v>-0.003270735923165397</v>
       </c>
       <c r="D67">
-        <v>0.01762356757213979</v>
+        <v>0.001852475335976201</v>
       </c>
       <c r="E67">
-        <v>-0.01819941728513843</v>
+        <v>0.01014239875273745</v>
       </c>
       <c r="F67">
-        <v>0.01099833734934716</v>
+        <v>-0.03611872288997459</v>
       </c>
       <c r="G67">
-        <v>0.01941381480511491</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03392129807527763</v>
+      </c>
+      <c r="H67">
+        <v>-0.005945549167516477</v>
+      </c>
+      <c r="I67">
+        <v>0.03746021636395733</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.03412506652464865</v>
+        <v>-0.06111539333362622</v>
       </c>
       <c r="C68">
-        <v>-0.2446945245847225</v>
+        <v>-0.2328908083494993</v>
       </c>
       <c r="D68">
-        <v>-0.02836374324900701</v>
+        <v>0.01503189190703389</v>
       </c>
       <c r="E68">
-        <v>-0.05135789584205216</v>
+        <v>-0.04122674425907917</v>
       </c>
       <c r="F68">
-        <v>-0.02511662010660705</v>
+        <v>-0.05659364303463511</v>
       </c>
       <c r="G68">
-        <v>-0.01480156402273022</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.004663228114963294</v>
+      </c>
+      <c r="H68">
+        <v>-0.01569022165321826</v>
+      </c>
+      <c r="I68">
+        <v>-0.1592088737348491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07104948900415854</v>
+        <v>-0.07216567640598645</v>
       </c>
       <c r="C69">
-        <v>0.01754929061576502</v>
+        <v>0.02006783263410703</v>
       </c>
       <c r="D69">
-        <v>0.02517561700208192</v>
+        <v>0.006807105476330681</v>
       </c>
       <c r="E69">
-        <v>0.01474466480055404</v>
+        <v>0.03160574261248074</v>
       </c>
       <c r="F69">
-        <v>-0.01762072462361009</v>
+        <v>0.00196231157706804</v>
       </c>
       <c r="G69">
-        <v>-0.02261238109683611</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02473532575526894</v>
+      </c>
+      <c r="H69">
+        <v>0.02750700307983921</v>
+      </c>
+      <c r="I69">
+        <v>0.001983156267234489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.02662300548370838</v>
+        <v>-0.05851300043392635</v>
       </c>
       <c r="C71">
-        <v>-0.2792681105093961</v>
+        <v>-0.2486243130244283</v>
       </c>
       <c r="D71">
-        <v>-0.03653947358910402</v>
+        <v>0.01947563187728075</v>
       </c>
       <c r="E71">
-        <v>-0.08397148722514507</v>
+        <v>-0.06538928827699153</v>
       </c>
       <c r="F71">
-        <v>-0.0316337168581915</v>
+        <v>-0.07986240018016261</v>
       </c>
       <c r="G71">
-        <v>-0.01188056431612549</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01697727245004773</v>
+      </c>
+      <c r="H71">
+        <v>-0.02583717590809162</v>
+      </c>
+      <c r="I71">
+        <v>-0.1324767730866013</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1226328365199169</v>
+        <v>-0.1250309216387151</v>
       </c>
       <c r="C72">
-        <v>-0.003011964183121477</v>
+        <v>0.03297832203073247</v>
       </c>
       <c r="D72">
-        <v>0.04699786533239309</v>
+        <v>0.007260182296505032</v>
       </c>
       <c r="E72">
-        <v>-0.08629874346716104</v>
+        <v>0.0644517379889982</v>
       </c>
       <c r="F72">
-        <v>0.02574904272604399</v>
+        <v>-0.08358728529579869</v>
       </c>
       <c r="G72">
-        <v>-0.0140007342183054</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03994305929186948</v>
+      </c>
+      <c r="H72">
+        <v>-0.02057147222490169</v>
+      </c>
+      <c r="I72">
+        <v>0.09209037896837494</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2928821218540922</v>
+        <v>-0.269684772201785</v>
       </c>
       <c r="C73">
-        <v>-0.1633835073437343</v>
+        <v>-0.06335375977913069</v>
       </c>
       <c r="D73">
-        <v>-0.05093012163065758</v>
+        <v>0.08755812836072106</v>
       </c>
       <c r="E73">
-        <v>-0.3413084099355705</v>
+        <v>-0.0375271142848362</v>
       </c>
       <c r="F73">
-        <v>0.002285032760114575</v>
+        <v>-0.3126267802898631</v>
       </c>
       <c r="G73">
-        <v>0.05884807908478275</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1722239951354476</v>
+      </c>
+      <c r="H73">
+        <v>-0.4762895336178686</v>
+      </c>
+      <c r="I73">
+        <v>0.2786077775346302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1607347153698934</v>
+        <v>-0.1496121528172202</v>
       </c>
       <c r="C74">
-        <v>0.007037859138779278</v>
+        <v>0.02794970431843144</v>
       </c>
       <c r="D74">
-        <v>0.04989225756906968</v>
+        <v>0.01453450622787998</v>
       </c>
       <c r="E74">
-        <v>0.0328892111355418</v>
+        <v>0.05196142251873019</v>
       </c>
       <c r="F74">
-        <v>0.01665794455165357</v>
+        <v>0.05573819659237583</v>
       </c>
       <c r="G74">
-        <v>-0.07572236801328433</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01726878241996552</v>
+      </c>
+      <c r="H74">
+        <v>-0.03106974472972565</v>
+      </c>
+      <c r="I74">
+        <v>-0.02404942564921509</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2342170766267301</v>
+        <v>-0.2411642846459798</v>
       </c>
       <c r="C75">
-        <v>0.0093373382068325</v>
+        <v>0.02706736267211117</v>
       </c>
       <c r="D75">
-        <v>0.07830813635739292</v>
+        <v>0.02988615735440532</v>
       </c>
       <c r="E75">
-        <v>0.129805830511461</v>
+        <v>0.1086995679176189</v>
       </c>
       <c r="F75">
-        <v>-0.007825678211114871</v>
+        <v>0.141895422296128</v>
       </c>
       <c r="G75">
-        <v>-0.05501212856970245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.004186324315446834</v>
+      </c>
+      <c r="H75">
+        <v>-0.0212912434579241</v>
+      </c>
+      <c r="I75">
+        <v>-0.07986009345576908</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2476057169462266</v>
+        <v>-0.2642930644929625</v>
       </c>
       <c r="C76">
-        <v>-0.01162101756086439</v>
+        <v>0.01380212669561889</v>
       </c>
       <c r="D76">
-        <v>0.1112640044662371</v>
+        <v>-0.01041050313284161</v>
       </c>
       <c r="E76">
-        <v>0.1309731737384449</v>
+        <v>0.1341096363716705</v>
       </c>
       <c r="F76">
-        <v>0.04734240082801323</v>
+        <v>0.1871402970115279</v>
       </c>
       <c r="G76">
-        <v>-0.07981890244985158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05953338246380824</v>
+      </c>
+      <c r="H76">
+        <v>-0.04731071870582432</v>
+      </c>
+      <c r="I76">
+        <v>-0.05296576241400548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1342440623875371</v>
+        <v>-0.1241936185256021</v>
       </c>
       <c r="C77">
-        <v>0.06676502398686156</v>
+        <v>0.0762090997461</v>
       </c>
       <c r="D77">
-        <v>-0.02856721049309188</v>
+        <v>0.007600249954205463</v>
       </c>
       <c r="E77">
-        <v>-0.1487463788327857</v>
+        <v>-0.0276383065293516</v>
       </c>
       <c r="F77">
-        <v>0.001565461143412178</v>
+        <v>-0.1575243043928765</v>
       </c>
       <c r="G77">
-        <v>0.05902817065148994</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.004603539492325107</v>
+      </c>
+      <c r="H77">
+        <v>0.215237074932509</v>
+      </c>
+      <c r="I77">
+        <v>-0.2520463029967803</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08468535040063623</v>
+        <v>-0.07487116835332835</v>
       </c>
       <c r="C78">
-        <v>0.05624990498152356</v>
+        <v>0.07759810555366965</v>
       </c>
       <c r="D78">
-        <v>-0.007690894679487924</v>
+        <v>-0.005046816822774199</v>
       </c>
       <c r="E78">
-        <v>-0.05248993490812444</v>
+        <v>0.01623977095099931</v>
       </c>
       <c r="F78">
-        <v>-0.01229658023055449</v>
+        <v>-0.07132003996601041</v>
       </c>
       <c r="G78">
-        <v>-0.004636636905672039</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01156556454161246</v>
+      </c>
+      <c r="H78">
+        <v>0.02193204272238877</v>
+      </c>
+      <c r="I78">
+        <v>-0.03243815507629392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.05881813402882279</v>
+        <v>-0.1379868485028923</v>
       </c>
       <c r="C80">
-        <v>0.02745717690674428</v>
+        <v>-0.02795400034160848</v>
       </c>
       <c r="D80">
-        <v>-0.08316870869137417</v>
+        <v>-0.9750760261087752</v>
       </c>
       <c r="E80">
-        <v>0.06474453136585641</v>
+        <v>-0.047983934637581</v>
       </c>
       <c r="F80">
-        <v>0.6935788903181593</v>
+        <v>-0.04572710601426516</v>
       </c>
       <c r="G80">
-        <v>0.6658428954761059</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04606745195381171</v>
+      </c>
+      <c r="H80">
+        <v>-0.05102192885918607</v>
+      </c>
+      <c r="I80">
+        <v>0.03826704253000094</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.163602091652105</v>
+        <v>-0.1789145676933003</v>
       </c>
       <c r="C81">
-        <v>-0.005878500856919312</v>
+        <v>0.005076287739898009</v>
       </c>
       <c r="D81">
-        <v>0.05903260404530236</v>
+        <v>0.007818813154781836</v>
       </c>
       <c r="E81">
-        <v>0.1650646311771542</v>
+        <v>0.0819685289324744</v>
       </c>
       <c r="F81">
-        <v>0.02915895051716978</v>
+        <v>0.1588915669289206</v>
       </c>
       <c r="G81">
-        <v>-0.08525362161304205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.02546220740344545</v>
+      </c>
+      <c r="H81">
+        <v>-0.009985790438217332</v>
+      </c>
+      <c r="I81">
+        <v>-0.05502421520200972</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09149071657325493</v>
+        <v>-0.06957234876347981</v>
       </c>
       <c r="C83">
-        <v>0.0736485098661659</v>
+        <v>0.05697804385033271</v>
       </c>
       <c r="D83">
-        <v>-0.05613360383872255</v>
+        <v>0.01423644408638694</v>
       </c>
       <c r="E83">
-        <v>-0.01724601787797867</v>
+        <v>-0.03278391536511682</v>
       </c>
       <c r="F83">
-        <v>-0.06567229845714133</v>
+        <v>-0.04483495952762726</v>
       </c>
       <c r="G83">
-        <v>0.01603680243261632</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05888007421860295</v>
+      </c>
+      <c r="H83">
+        <v>0.03435767448256587</v>
+      </c>
+      <c r="I83">
+        <v>-0.02594863944714858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2383510901380503</v>
+        <v>-0.249643991304752</v>
       </c>
       <c r="C85">
-        <v>0.06237122331531532</v>
+        <v>0.05601399722310037</v>
       </c>
       <c r="D85">
-        <v>0.07905972032904407</v>
+        <v>0.009226296599029781</v>
       </c>
       <c r="E85">
-        <v>0.1613486027027964</v>
+        <v>0.1073092335824727</v>
       </c>
       <c r="F85">
-        <v>0.05158498823128464</v>
+        <v>0.1888952054184212</v>
       </c>
       <c r="G85">
-        <v>-0.07064608940752638</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.02329993287690016</v>
+      </c>
+      <c r="H85">
+        <v>0.02105673497626746</v>
+      </c>
+      <c r="I85">
+        <v>-0.05863697598260492</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04124722368099645</v>
+        <v>-0.02529859169148957</v>
       </c>
       <c r="C86">
-        <v>0.05839239400947215</v>
+        <v>0.05752964764879943</v>
       </c>
       <c r="D86">
-        <v>0.02066556330716993</v>
+        <v>0.0007371662321950408</v>
       </c>
       <c r="E86">
-        <v>-0.0603912924546001</v>
+        <v>0.01829588815595442</v>
       </c>
       <c r="F86">
-        <v>0.007093714283265752</v>
+        <v>-0.06775916898587427</v>
       </c>
       <c r="G86">
-        <v>-0.01651697108199213</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.00147196527256906</v>
+      </c>
+      <c r="H86">
+        <v>0.07166175523312836</v>
+      </c>
+      <c r="I86">
+        <v>-0.03201764666612872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02821232242682339</v>
+        <v>-0.0322601323170217</v>
       </c>
       <c r="C87">
-        <v>-0.05368526109237783</v>
+        <v>-0.008837838036614729</v>
       </c>
       <c r="D87">
-        <v>-0.004826691406479771</v>
+        <v>0.001163174825723397</v>
       </c>
       <c r="E87">
-        <v>-0.09407697730373582</v>
+        <v>0.00251933260867162</v>
       </c>
       <c r="F87">
-        <v>0.0154593123301456</v>
+        <v>-0.09856822204745933</v>
       </c>
       <c r="G87">
-        <v>-0.01327649646178104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02282593719697397</v>
+      </c>
+      <c r="H87">
+        <v>0.01408002374652381</v>
+      </c>
+      <c r="I87">
+        <v>0.010381812842663</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03745033148194125</v>
+        <v>-0.03069680032949919</v>
       </c>
       <c r="C88">
-        <v>0.02798956712842941</v>
+        <v>0.01616411652216796</v>
       </c>
       <c r="D88">
-        <v>0.003620454066242844</v>
+        <v>-0.009486025090734469</v>
       </c>
       <c r="E88">
-        <v>0.01259539051688164</v>
+        <v>0.008554633192203332</v>
       </c>
       <c r="F88">
-        <v>-0.001533531840260195</v>
+        <v>0.01514598678849899</v>
       </c>
       <c r="G88">
-        <v>0.004362198717197177</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.04660853111494637</v>
+      </c>
+      <c r="H88">
+        <v>0.03048669713524239</v>
+      </c>
+      <c r="I88">
+        <v>0.01946465498851163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.0372229645952797</v>
+        <v>-0.095624072746368</v>
       </c>
       <c r="C89">
-        <v>-0.3816232759035159</v>
+        <v>-0.3807301069575352</v>
       </c>
       <c r="D89">
-        <v>-0.1043351511128778</v>
+        <v>0.04268285413405799</v>
       </c>
       <c r="E89">
-        <v>-0.00392947825190009</v>
+        <v>-0.09086040937104022</v>
       </c>
       <c r="F89">
-        <v>-0.03635693421319797</v>
+        <v>-0.03935472169436095</v>
       </c>
       <c r="G89">
-        <v>0.000757952717043878</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03879483587108353</v>
+      </c>
+      <c r="H89">
+        <v>0.05346736442422114</v>
+      </c>
+      <c r="I89">
+        <v>-0.2453490275641758</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.03020934642945489</v>
+        <v>-0.06553564082479255</v>
       </c>
       <c r="C90">
-        <v>-0.3003874177052225</v>
+        <v>-0.3234235082504291</v>
       </c>
       <c r="D90">
-        <v>-0.05741302058298955</v>
+        <v>0.01754921578964294</v>
       </c>
       <c r="E90">
-        <v>-0.05147525626259884</v>
+        <v>-0.07403120878771094</v>
       </c>
       <c r="F90">
-        <v>-0.04637711516076544</v>
+        <v>-0.03812139444256551</v>
       </c>
       <c r="G90">
-        <v>0.001842874906315702</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02601761553885285</v>
+      </c>
+      <c r="H90">
+        <v>0.005809317118430396</v>
+      </c>
+      <c r="I90">
+        <v>-0.2138775439399494</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2768211787601874</v>
+        <v>-0.2896856099778558</v>
       </c>
       <c r="C91">
-        <v>0.04532825161137354</v>
+        <v>0.04927060081597416</v>
       </c>
       <c r="D91">
-        <v>0.07420563897959456</v>
+        <v>0.01662715848588547</v>
       </c>
       <c r="E91">
-        <v>0.2764187792921515</v>
+        <v>0.0956710196801005</v>
       </c>
       <c r="F91">
-        <v>0.05663597401276992</v>
+        <v>0.280876111398993</v>
       </c>
       <c r="G91">
-        <v>-0.04344386678277852</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02667140336508114</v>
+      </c>
+      <c r="H91">
+        <v>-0.01277190165087287</v>
+      </c>
+      <c r="I91">
+        <v>-0.09425377426710536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.0725251869602542</v>
+        <v>-0.1298934666765307</v>
       </c>
       <c r="C92">
-        <v>-0.4032632278199746</v>
+        <v>-0.4156702546382844</v>
       </c>
       <c r="D92">
-        <v>-0.17734361603253</v>
+        <v>-0.001476153984502199</v>
       </c>
       <c r="E92">
-        <v>0.09662934079499737</v>
+        <v>-0.119952508273065</v>
       </c>
       <c r="F92">
-        <v>0.08899997321513013</v>
+        <v>0.1196793716906263</v>
       </c>
       <c r="G92">
-        <v>0.03256611961724649</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.08685263859746169</v>
+      </c>
+      <c r="H92">
+        <v>0.4258649445150488</v>
+      </c>
+      <c r="I92">
+        <v>0.6438127946364031</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.02157957059511284</v>
+        <v>-0.07637683828598224</v>
       </c>
       <c r="C93">
-        <v>-0.3662871963897797</v>
+        <v>-0.3885949263431871</v>
       </c>
       <c r="D93">
-        <v>-0.0876949617682895</v>
+        <v>0.0351384397121999</v>
       </c>
       <c r="E93">
-        <v>0.02337878863989875</v>
+        <v>-0.1155134487428271</v>
       </c>
       <c r="F93">
-        <v>0.006354063677728158</v>
+        <v>-0.01007513511192771</v>
       </c>
       <c r="G93">
-        <v>0.02956600236234235</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03723559943191095</v>
+      </c>
+      <c r="H93">
+        <v>-0.02274307253745734</v>
+      </c>
+      <c r="I93">
+        <v>-0.1480601501562231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2740422372920566</v>
+        <v>-0.3088506728429439</v>
       </c>
       <c r="C94">
-        <v>-0.0884034812285779</v>
+        <v>-0.03925221467611843</v>
       </c>
       <c r="D94">
-        <v>0.04150338829091949</v>
+        <v>0.04221300864356328</v>
       </c>
       <c r="E94">
-        <v>0.3702494337913185</v>
+        <v>0.1249528342471075</v>
       </c>
       <c r="F94">
-        <v>0.2410346750159533</v>
+        <v>0.3433836853467163</v>
       </c>
       <c r="G94">
-        <v>-0.3009004522106537</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2025117920357427</v>
+      </c>
+      <c r="H94">
+        <v>0.1191619585693261</v>
+      </c>
+      <c r="I94">
+        <v>-0.01887557722616464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1877487069008165</v>
+        <v>-0.134197779680699</v>
       </c>
       <c r="C95">
-        <v>-0.001210741757219398</v>
+        <v>0.04423757279470539</v>
       </c>
       <c r="D95">
-        <v>0.02615680527949079</v>
+        <v>0.09715267789570918</v>
       </c>
       <c r="E95">
-        <v>0.3452839964068078</v>
+        <v>0.04524504054739961</v>
       </c>
       <c r="F95">
-        <v>-0.615921094482776</v>
+        <v>0.07642995424494586</v>
       </c>
       <c r="G95">
-        <v>0.6079381546133694</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8952257773654114</v>
+      </c>
+      <c r="H95">
+        <v>-0.1611391220947364</v>
+      </c>
+      <c r="I95">
+        <v>0.1226420645875021</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2234457992252567</v>
+        <v>-0.2083465697411354</v>
       </c>
       <c r="C98">
-        <v>-0.1029417455503029</v>
+        <v>-0.0523237237914118</v>
       </c>
       <c r="D98">
-        <v>-0.0258071381144896</v>
+        <v>0.06158302790575908</v>
       </c>
       <c r="E98">
-        <v>-0.09978365777490603</v>
+        <v>-0.03081774287253926</v>
       </c>
       <c r="F98">
-        <v>-0.05421700450187117</v>
+        <v>-0.1667736087453359</v>
       </c>
       <c r="G98">
-        <v>0.004355983944715137</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08189982566016038</v>
+      </c>
+      <c r="H98">
+        <v>-0.3194550902709168</v>
+      </c>
+      <c r="I98">
+        <v>0.159760205991633</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0237763301498123</v>
+        <v>-0.01815771094513529</v>
       </c>
       <c r="C101">
-        <v>0.02503665706774704</v>
+        <v>0.02780955054189889</v>
       </c>
       <c r="D101">
-        <v>0.03032601941533172</v>
+        <v>-0.004263313770026595</v>
       </c>
       <c r="E101">
-        <v>-0.0316788454765095</v>
+        <v>0.0355081247178092</v>
       </c>
       <c r="F101">
-        <v>-0.01452086728702379</v>
+        <v>-0.06349246971644344</v>
       </c>
       <c r="G101">
-        <v>-0.005554354234473828</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01347083623067053</v>
+      </c>
+      <c r="H101">
+        <v>0.114394667670702</v>
+      </c>
+      <c r="I101">
+        <v>0.06224028321044373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.111822774713884</v>
+        <v>-0.1204077768098914</v>
       </c>
       <c r="C102">
-        <v>0.0241263385475467</v>
+        <v>0.02246441385494796</v>
       </c>
       <c r="D102">
-        <v>0.04584086620145218</v>
+        <v>-0.00199368092250865</v>
       </c>
       <c r="E102">
-        <v>0.09303899976279772</v>
+        <v>0.05657561453615111</v>
       </c>
       <c r="F102">
-        <v>0.01521064898725078</v>
+        <v>0.1013542888369227</v>
       </c>
       <c r="G102">
-        <v>0.005701913537968391</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01127577614400426</v>
+      </c>
+      <c r="H102">
+        <v>-0.01325281119129439</v>
+      </c>
+      <c r="I102">
+        <v>-0.0608798285801767</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02091314157722878</v>
+        <v>-0.03002613952979857</v>
       </c>
       <c r="C103">
-        <v>0.005509126112635262</v>
+        <v>0.00719716663182576</v>
       </c>
       <c r="D103">
-        <v>0.008555910774378648</v>
+        <v>-0.008412434727682603</v>
       </c>
       <c r="E103">
-        <v>0.03254794121687982</v>
+        <v>0.02062793695934149</v>
       </c>
       <c r="F103">
-        <v>0.001729302242793448</v>
+        <v>0.02726479906094381</v>
       </c>
       <c r="G103">
-        <v>-0.008557483025706967</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01124401817353745</v>
+      </c>
+      <c r="H103">
+        <v>0.01152527725018061</v>
+      </c>
+      <c r="I103">
+        <v>-0.02504539382267684</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
